--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H2">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I2">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J2">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.9027370911156219</v>
+        <v>0.172542</v>
       </c>
       <c r="N2">
-        <v>0.9027370911156219</v>
+        <v>0.345084</v>
       </c>
       <c r="O2">
-        <v>0.6805758807132665</v>
+        <v>0.09359174640369718</v>
       </c>
       <c r="P2">
-        <v>0.6805758807132665</v>
+        <v>0.07029591859391865</v>
       </c>
       <c r="Q2">
-        <v>3.407317921418336</v>
+        <v>0.651424987965</v>
       </c>
       <c r="R2">
-        <v>3.407317921418336</v>
+        <v>2.60569995186</v>
       </c>
       <c r="S2">
-        <v>0.1263874496219662</v>
+        <v>0.01598967914758509</v>
       </c>
       <c r="T2">
-        <v>0.1263874496219662</v>
+        <v>0.008614831583619529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H3">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I3">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J3">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.423694122064491</v>
+        <v>1.030780666666667</v>
       </c>
       <c r="N3">
-        <v>0.423694122064491</v>
+        <v>3.092342</v>
       </c>
       <c r="O3">
-        <v>0.3194241192867334</v>
+        <v>0.5591250985412282</v>
       </c>
       <c r="P3">
-        <v>0.3194241192867334</v>
+        <v>0.6299307458374066</v>
       </c>
       <c r="Q3">
-        <v>1.599203787589852</v>
+        <v>3.891668598821667</v>
       </c>
       <c r="R3">
-        <v>1.599203787589852</v>
+        <v>23.35001159293</v>
       </c>
       <c r="S3">
-        <v>0.05931917502289761</v>
+        <v>0.09552371093144774</v>
       </c>
       <c r="T3">
-        <v>0.05931917502289761</v>
+        <v>0.07719861114671556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22991504304809</v>
+        <v>3.7754575</v>
       </c>
       <c r="H4">
-        <v>1.22991504304809</v>
+        <v>7.550915</v>
       </c>
       <c r="I4">
-        <v>0.06051334208119499</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J4">
-        <v>0.06051334208119499</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9027370911156219</v>
+        <v>0.03669233333333333</v>
       </c>
       <c r="N4">
-        <v>0.9027370911156219</v>
+        <v>0.110077</v>
       </c>
       <c r="O4">
-        <v>0.6805758807132665</v>
+        <v>0.01990297757237808</v>
       </c>
       <c r="P4">
-        <v>0.6805758807132665</v>
+        <v>0.02242342105418618</v>
       </c>
       <c r="Q4">
-        <v>1.110289928280578</v>
+        <v>0.1385303450758333</v>
       </c>
       <c r="R4">
-        <v>1.110289928280578</v>
+        <v>0.831182070455</v>
       </c>
       <c r="S4">
-        <v>0.04118392108181245</v>
+        <v>0.003400323614982098</v>
       </c>
       <c r="T4">
-        <v>0.04118392108181245</v>
+        <v>0.002748011545681884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22991504304809</v>
+        <v>3.7754575</v>
       </c>
       <c r="H5">
-        <v>1.22991504304809</v>
+        <v>7.550915</v>
       </c>
       <c r="I5">
-        <v>0.06051334208119499</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J5">
-        <v>0.06051334208119499</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.423694122064491</v>
+        <v>0.1117726666666667</v>
       </c>
       <c r="N5">
-        <v>0.423694122064491</v>
+        <v>0.335318</v>
       </c>
       <c r="O5">
-        <v>0.3194241192867334</v>
+        <v>0.06062871111689701</v>
       </c>
       <c r="P5">
-        <v>0.3194241192867334</v>
+        <v>0.06830651908252952</v>
       </c>
       <c r="Q5">
-        <v>0.5211077743781711</v>
+        <v>0.4219929526616667</v>
       </c>
       <c r="R5">
-        <v>0.5211077743781711</v>
+        <v>2.53195771597</v>
       </c>
       <c r="S5">
-        <v>0.01932942099938253</v>
+        <v>0.01035811035846332</v>
       </c>
       <c r="T5">
-        <v>0.01932942099938253</v>
+        <v>0.00837102878416888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65353069794807</v>
+        <v>3.7754575</v>
       </c>
       <c r="H6">
-        <v>3.65353069794807</v>
+        <v>7.550915</v>
       </c>
       <c r="I6">
-        <v>0.179758231415041</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J6">
-        <v>0.179758231415041</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.9027370911156219</v>
+        <v>0.04265333333333333</v>
       </c>
       <c r="N6">
-        <v>0.9027370911156219</v>
+        <v>0.12796</v>
       </c>
       <c r="O6">
-        <v>0.6805758807132665</v>
+        <v>0.02313639552460095</v>
       </c>
       <c r="P6">
-        <v>0.6805758807132665</v>
+        <v>0.0260663077490635</v>
       </c>
       <c r="Q6">
-        <v>3.298177674567269</v>
+        <v>0.1610358472333333</v>
       </c>
       <c r="R6">
-        <v>3.298177674567269</v>
+        <v>0.9662150834</v>
       </c>
       <c r="S6">
-        <v>0.1223391166607507</v>
+        <v>0.003952736809443473</v>
       </c>
       <c r="T6">
-        <v>0.1223391166607507</v>
+        <v>0.003194450769783458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65353069794807</v>
+        <v>3.7754575</v>
       </c>
       <c r="H7">
-        <v>3.65353069794807</v>
+        <v>7.550915</v>
       </c>
       <c r="I7">
-        <v>0.179758231415041</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J7">
-        <v>0.179758231415041</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.423694122064491</v>
+        <v>0.449119</v>
       </c>
       <c r="N7">
-        <v>0.423694122064491</v>
+        <v>0.898238</v>
       </c>
       <c r="O7">
-        <v>0.3194241192867334</v>
+        <v>0.2436150708411985</v>
       </c>
       <c r="P7">
-        <v>0.3194241192867334</v>
+        <v>0.1829770876828955</v>
       </c>
       <c r="Q7">
-        <v>1.547979481502775</v>
+        <v>1.6956296969425</v>
       </c>
       <c r="R7">
-        <v>1.547979481502775</v>
+        <v>6.78251878777</v>
       </c>
       <c r="S7">
-        <v>0.05741911475429028</v>
+        <v>0.04162040957612793</v>
       </c>
       <c r="T7">
-        <v>0.05741911475429028</v>
+        <v>0.02242401586862109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.58658983817303</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H8">
-        <v>7.58658983817303</v>
+        <v>3.981953</v>
       </c>
       <c r="I8">
-        <v>0.3732696080936801</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J8">
-        <v>0.3732696080936801</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.9027370911156219</v>
+        <v>0.172542</v>
       </c>
       <c r="N8">
-        <v>0.9027370911156219</v>
+        <v>0.345084</v>
       </c>
       <c r="O8">
-        <v>0.6805758807132665</v>
+        <v>0.09359174640369718</v>
       </c>
       <c r="P8">
-        <v>0.6805758807132665</v>
+        <v>0.07029591859391865</v>
       </c>
       <c r="Q8">
-        <v>6.848696041999657</v>
+        <v>0.229018044842</v>
       </c>
       <c r="R8">
-        <v>6.848696041999657</v>
+        <v>1.374108269052</v>
       </c>
       <c r="S8">
-        <v>0.2540382922718522</v>
+        <v>0.00562140710547564</v>
       </c>
       <c r="T8">
-        <v>0.2540382922718522</v>
+        <v>0.004543006307035444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.58658983817303</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H9">
-        <v>7.58658983817303</v>
+        <v>3.981953</v>
       </c>
       <c r="I9">
-        <v>0.3732696080936801</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J9">
-        <v>0.3732696080936801</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.423694122064491</v>
+        <v>1.030780666666667</v>
       </c>
       <c r="N9">
-        <v>0.423694122064491</v>
+        <v>3.092342</v>
       </c>
       <c r="O9">
-        <v>0.3194241192867334</v>
+        <v>0.5591250985412282</v>
       </c>
       <c r="P9">
-        <v>0.3194241192867334</v>
+        <v>0.6299307458374066</v>
       </c>
       <c r="Q9">
-        <v>3.21439352094811</v>
+        <v>1.368173389325111</v>
       </c>
       <c r="R9">
-        <v>3.21439352094811</v>
+        <v>12.313560503926</v>
       </c>
       <c r="S9">
-        <v>0.1192313158218279</v>
+        <v>0.0335827668845088</v>
       </c>
       <c r="T9">
-        <v>0.1192313158218279</v>
+        <v>0.04071046240773436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.17730865000538</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H10">
-        <v>3.17730865000538</v>
+        <v>3.981953</v>
       </c>
       <c r="I10">
-        <v>0.156327517353406</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J10">
-        <v>0.156327517353406</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.9027370911156219</v>
+        <v>0.03669233333333333</v>
       </c>
       <c r="N10">
-        <v>0.9027370911156219</v>
+        <v>0.110077</v>
       </c>
       <c r="O10">
-        <v>0.6805758807132665</v>
+        <v>0.01990297757237808</v>
       </c>
       <c r="P10">
-        <v>0.6805758807132665</v>
+        <v>0.02242342105418618</v>
       </c>
       <c r="Q10">
-        <v>2.868274368282361</v>
+        <v>0.04870238226455556</v>
       </c>
       <c r="R10">
-        <v>2.868274368282361</v>
+        <v>0.4383214403810001</v>
       </c>
       <c r="S10">
-        <v>0.1063927378025128</v>
+        <v>0.001195433826642097</v>
       </c>
       <c r="T10">
-        <v>0.1063927378025128</v>
+        <v>0.001449155872945546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.17730865000538</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H11">
-        <v>3.17730865000538</v>
+        <v>3.981953</v>
       </c>
       <c r="I11">
-        <v>0.156327517353406</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J11">
-        <v>0.156327517353406</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.423694122064491</v>
+        <v>0.1117726666666667</v>
       </c>
       <c r="N11">
-        <v>0.423694122064491</v>
+        <v>0.335318</v>
       </c>
       <c r="O11">
-        <v>0.3194241192867334</v>
+        <v>0.06062871111689701</v>
       </c>
       <c r="P11">
-        <v>0.3194241192867334</v>
+        <v>0.06830651908252952</v>
       </c>
       <c r="Q11">
-        <v>1.346206998991943</v>
+        <v>0.1483578351171111</v>
       </c>
       <c r="R11">
-        <v>1.346206998991943</v>
+        <v>1.335220516054</v>
       </c>
       <c r="S11">
-        <v>0.04993477955089325</v>
+        <v>0.00364154618932179</v>
       </c>
       <c r="T11">
-        <v>0.04993477955089325</v>
+        <v>0.004414437611893079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.90291786773438</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H12">
-        <v>0.90291786773438</v>
+        <v>3.981953</v>
       </c>
       <c r="I12">
-        <v>0.04442467641181402</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J12">
-        <v>0.04442467641181402</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.9027370911156219</v>
+        <v>0.04265333333333333</v>
       </c>
       <c r="N12">
-        <v>0.9027370911156219</v>
+        <v>0.12796</v>
       </c>
       <c r="O12">
-        <v>0.6805758807132665</v>
+        <v>0.02313639552460095</v>
       </c>
       <c r="P12">
-        <v>0.6805758807132665</v>
+        <v>0.0260663077490635</v>
       </c>
       <c r="Q12">
-        <v>0.8150974494348541</v>
+        <v>0.05661452287555556</v>
       </c>
       <c r="R12">
-        <v>0.8150974494348541</v>
+        <v>0.50953070588</v>
       </c>
       <c r="S12">
-        <v>0.0302343632743722</v>
+        <v>0.001389642817819551</v>
       </c>
       <c r="T12">
-        <v>0.0302343632743722</v>
+        <v>0.001684584295557764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,1540 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.90291786773438</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H13">
-        <v>0.90291786773438</v>
+        <v>3.981953</v>
       </c>
       <c r="I13">
-        <v>0.04442467641181402</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J13">
-        <v>0.04442467641181402</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.423694122064491</v>
+        <v>0.449119</v>
       </c>
       <c r="N13">
-        <v>0.423694122064491</v>
+        <v>0.898238</v>
       </c>
       <c r="O13">
-        <v>0.3194241192867334</v>
+        <v>0.2436150708411985</v>
       </c>
       <c r="P13">
-        <v>0.3194241192867334</v>
+        <v>0.1829770876828955</v>
       </c>
       <c r="Q13">
-        <v>0.3825609932660603</v>
+        <v>0.5961235831356667</v>
       </c>
       <c r="R13">
-        <v>0.3825609932660603</v>
+        <v>3.576741498814</v>
       </c>
       <c r="S13">
-        <v>0.01419031313744181</v>
+        <v>0.01463226772498356</v>
       </c>
       <c r="T13">
-        <v>0.01419031313744181</v>
+        <v>0.01182523935974691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H14">
+        <v>15.564294</v>
+      </c>
+      <c r="I14">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J14">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.172542</v>
+      </c>
+      <c r="N14">
+        <v>0.345084</v>
+      </c>
+      <c r="O14">
+        <v>0.09359174640369718</v>
+      </c>
+      <c r="P14">
+        <v>0.07029591859391865</v>
+      </c>
+      <c r="Q14">
+        <v>0.8951648051159998</v>
+      </c>
+      <c r="R14">
+        <v>5.370988830696</v>
+      </c>
+      <c r="S14">
+        <v>0.02197244238777098</v>
+      </c>
+      <c r="T14">
+        <v>0.0177572878953001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H15">
+        <v>15.564294</v>
+      </c>
+      <c r="I15">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J15">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.030780666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.092342</v>
+      </c>
+      <c r="O15">
+        <v>0.5591250985412282</v>
+      </c>
+      <c r="P15">
+        <v>0.6299307458374066</v>
+      </c>
+      <c r="Q15">
+        <v>5.347791115172</v>
+      </c>
+      <c r="R15">
+        <v>48.130120036548</v>
+      </c>
+      <c r="S15">
+        <v>0.131265250273913</v>
+      </c>
+      <c r="T15">
+        <v>0.1591253351784728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H16">
+        <v>15.564294</v>
+      </c>
+      <c r="I16">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J16">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03669233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.110077</v>
+      </c>
+      <c r="O16">
+        <v>0.01990297757237808</v>
+      </c>
+      <c r="P16">
+        <v>0.02242342105418618</v>
+      </c>
+      <c r="Q16">
+        <v>0.190363421182</v>
+      </c>
+      <c r="R16">
+        <v>1.713270790638</v>
+      </c>
+      <c r="S16">
+        <v>0.004672602498171782</v>
+      </c>
+      <c r="T16">
+        <v>0.005664328046652262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H17">
+        <v>15.564294</v>
+      </c>
+      <c r="I17">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J17">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1117726666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.335318</v>
+      </c>
+      <c r="O17">
+        <v>0.06062871111689701</v>
+      </c>
+      <c r="P17">
+        <v>0.06830651908252952</v>
+      </c>
+      <c r="Q17">
+        <v>0.5798875483879999</v>
+      </c>
+      <c r="R17">
+        <v>5.218987935492</v>
+      </c>
+      <c r="S17">
+        <v>0.0142337429661234</v>
+      </c>
+      <c r="T17">
+        <v>0.01725475032883657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H18">
+        <v>15.564294</v>
+      </c>
+      <c r="I18">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J18">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04265333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.12796</v>
+      </c>
+      <c r="O18">
+        <v>0.02313639552460095</v>
+      </c>
+      <c r="P18">
+        <v>0.0260663077490635</v>
+      </c>
+      <c r="Q18">
+        <v>0.2212896733599999</v>
+      </c>
+      <c r="R18">
+        <v>1.99160706024</v>
+      </c>
+      <c r="S18">
+        <v>0.005431708855310929</v>
+      </c>
+      <c r="T18">
+        <v>0.006584549150591161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.188097999999999</v>
+      </c>
+      <c r="H19">
+        <v>15.564294</v>
+      </c>
+      <c r="I19">
+        <v>0.2347690179109961</v>
+      </c>
+      <c r="J19">
+        <v>0.2526076655727249</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.449119</v>
+      </c>
+      <c r="N19">
+        <v>0.898238</v>
+      </c>
+      <c r="O19">
+        <v>0.2436150708411985</v>
+      </c>
+      <c r="P19">
+        <v>0.1829770876828955</v>
+      </c>
+      <c r="Q19">
+        <v>2.330073385662</v>
+      </c>
+      <c r="R19">
+        <v>13.980440313972</v>
+      </c>
+      <c r="S19">
+        <v>0.05719327092970591</v>
+      </c>
+      <c r="T19">
+        <v>0.04622141497287202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H20">
+        <v>23.032583</v>
+      </c>
+      <c r="I20">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J20">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.172542</v>
+      </c>
+      <c r="N20">
+        <v>0.345084</v>
+      </c>
+      <c r="O20">
+        <v>0.09359174640369718</v>
+      </c>
+      <c r="P20">
+        <v>0.07029591859391865</v>
+      </c>
+      <c r="Q20">
+        <v>1.324695978662</v>
+      </c>
+      <c r="R20">
+        <v>7.948175871972001</v>
+      </c>
+      <c r="S20">
+        <v>0.03251558361780197</v>
+      </c>
+      <c r="T20">
+        <v>0.02627785155583638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H21">
+        <v>23.032583</v>
+      </c>
+      <c r="I21">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J21">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.030780666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.092342</v>
+      </c>
+      <c r="O21">
+        <v>0.5591250985412282</v>
+      </c>
+      <c r="P21">
+        <v>0.6299307458374066</v>
+      </c>
+      <c r="Q21">
+        <v>7.913847086598446</v>
+      </c>
+      <c r="R21">
+        <v>71.22462377938602</v>
+      </c>
+      <c r="S21">
+        <v>0.1942508778072218</v>
+      </c>
+      <c r="T21">
+        <v>0.2354791993713942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H22">
+        <v>23.032583</v>
+      </c>
+      <c r="I22">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J22">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.03669233333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.110077</v>
+      </c>
+      <c r="O22">
+        <v>0.01990297757237808</v>
+      </c>
+      <c r="P22">
+        <v>0.02242342105418618</v>
+      </c>
+      <c r="Q22">
+        <v>0.2817064043212222</v>
+      </c>
+      <c r="R22">
+        <v>2.535357638891</v>
+      </c>
+      <c r="S22">
+        <v>0.006914679513580825</v>
+      </c>
+      <c r="T22">
+        <v>0.00838226943501235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H23">
+        <v>23.032583</v>
+      </c>
+      <c r="I23">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J23">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1117726666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.335318</v>
+      </c>
+      <c r="O23">
+        <v>0.06062871111689701</v>
+      </c>
+      <c r="P23">
+        <v>0.06830651908252952</v>
+      </c>
+      <c r="Q23">
+        <v>0.8581377407104446</v>
+      </c>
+      <c r="R23">
+        <v>7.723239666394001</v>
+      </c>
+      <c r="S23">
+        <v>0.02106358735371508</v>
+      </c>
+      <c r="T23">
+        <v>0.02553417900569121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H24">
+        <v>23.032583</v>
+      </c>
+      <c r="I24">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J24">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04265333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.12796</v>
+      </c>
+      <c r="O24">
+        <v>0.02313639552460095</v>
+      </c>
+      <c r="P24">
+        <v>0.0260663077490635</v>
+      </c>
+      <c r="Q24">
+        <v>0.3274721467422222</v>
+      </c>
+      <c r="R24">
+        <v>2.94724932068</v>
+      </c>
+      <c r="S24">
+        <v>0.008038031473948257</v>
+      </c>
+      <c r="T24">
+        <v>0.009744044595185007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H25">
+        <v>23.032583</v>
+      </c>
+      <c r="I25">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J25">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.449119</v>
+      </c>
+      <c r="N25">
+        <v>0.898238</v>
+      </c>
+      <c r="O25">
+        <v>0.2436150708411985</v>
+      </c>
+      <c r="P25">
+        <v>0.1829770876828955</v>
+      </c>
+      <c r="Q25">
+        <v>3.448123548125667</v>
+      </c>
+      <c r="R25">
+        <v>20.688741288754</v>
+      </c>
+      <c r="S25">
+        <v>0.08463658934545563</v>
+      </c>
+      <c r="T25">
+        <v>0.06840005571342445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H26">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J26">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.172542</v>
+      </c>
+      <c r="N26">
+        <v>0.345084</v>
+      </c>
+      <c r="O26">
+        <v>0.09359174640369718</v>
+      </c>
+      <c r="P26">
+        <v>0.07029591859391865</v>
+      </c>
+      <c r="Q26">
+        <v>0.556290131584</v>
+      </c>
+      <c r="R26">
+        <v>3.337740789504</v>
+      </c>
+      <c r="S26">
+        <v>0.01365452796765291</v>
+      </c>
+      <c r="T26">
+        <v>0.01103506746846621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H27">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J27">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.030780666666667</v>
+      </c>
+      <c r="N27">
+        <v>3.092342</v>
+      </c>
+      <c r="O27">
+        <v>0.5591250985412282</v>
+      </c>
+      <c r="P27">
+        <v>0.6299307458374066</v>
+      </c>
+      <c r="Q27">
+        <v>3.323324829283556</v>
+      </c>
+      <c r="R27">
+        <v>29.909923463552</v>
+      </c>
+      <c r="S27">
+        <v>0.0815733180414966</v>
+      </c>
+      <c r="T27">
+        <v>0.09888665543917345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H28">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J28">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.03669233333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.110077</v>
+      </c>
+      <c r="O28">
+        <v>0.01990297757237808</v>
+      </c>
+      <c r="P28">
+        <v>0.02242342105418618</v>
+      </c>
+      <c r="Q28">
+        <v>0.1182992137457778</v>
+      </c>
+      <c r="R28">
+        <v>1.064692923712</v>
+      </c>
+      <c r="S28">
+        <v>0.002903736433439064</v>
+      </c>
+      <c r="T28">
+        <v>0.003520033156351366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H29">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J29">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1117726666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.335318</v>
+      </c>
+      <c r="O29">
+        <v>0.06062871111689701</v>
+      </c>
+      <c r="P29">
+        <v>0.06830651908252952</v>
+      </c>
+      <c r="Q29">
+        <v>0.3603646152675556</v>
+      </c>
+      <c r="R29">
+        <v>3.243281537408</v>
+      </c>
+      <c r="S29">
+        <v>0.008845399978087341</v>
+      </c>
+      <c r="T29">
+        <v>0.01072277113222042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H30">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J30">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.04265333333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.12796</v>
+      </c>
+      <c r="O30">
+        <v>0.02313639552460095</v>
+      </c>
+      <c r="P30">
+        <v>0.0260663077490635</v>
+      </c>
+      <c r="Q30">
+        <v>0.1375179864177778</v>
+      </c>
+      <c r="R30">
+        <v>1.23766187776</v>
+      </c>
+      <c r="S30">
+        <v>0.003375474568010234</v>
+      </c>
+      <c r="T30">
+        <v>0.004091894243908543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H31">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J31">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.449119</v>
+      </c>
+      <c r="N31">
+        <v>0.898238</v>
+      </c>
+      <c r="O31">
+        <v>0.2436150708411985</v>
+      </c>
+      <c r="P31">
+        <v>0.1829770876828955</v>
+      </c>
+      <c r="Q31">
+        <v>1.447997980821333</v>
+      </c>
+      <c r="R31">
+        <v>8.687987884928001</v>
+      </c>
+      <c r="S31">
+        <v>0.03554211697038579</v>
+      </c>
+      <c r="T31">
+        <v>0.02872378010206254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.9062475</v>
+      </c>
+      <c r="H32">
+        <v>1.812495</v>
+      </c>
+      <c r="I32">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J32">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.172542</v>
+      </c>
+      <c r="N32">
+        <v>0.345084</v>
+      </c>
+      <c r="O32">
+        <v>0.09359174640369718</v>
+      </c>
+      <c r="P32">
+        <v>0.07029591859391865</v>
+      </c>
+      <c r="Q32">
+        <v>0.156365756145</v>
+      </c>
+      <c r="R32">
+        <v>0.62546302458</v>
+      </c>
+      <c r="S32">
+        <v>0.003838106177410583</v>
+      </c>
+      <c r="T32">
+        <v>0.002067873783660984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.9062475</v>
+      </c>
+      <c r="H33">
+        <v>1.812495</v>
+      </c>
+      <c r="I33">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J33">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.030780666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.092342</v>
+      </c>
+      <c r="O33">
+        <v>0.5591250985412282</v>
+      </c>
+      <c r="P33">
+        <v>0.6299307458374066</v>
+      </c>
+      <c r="Q33">
+        <v>0.9341424022150001</v>
+      </c>
+      <c r="R33">
+        <v>5.604854413290001</v>
+      </c>
+      <c r="S33">
+        <v>0.02292917460264013</v>
+      </c>
+      <c r="T33">
+        <v>0.01853048229391619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.9062475</v>
+      </c>
+      <c r="H34">
+        <v>1.812495</v>
+      </c>
+      <c r="I34">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J34">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.03669233333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.110077</v>
+      </c>
+      <c r="O34">
+        <v>0.01990297757237808</v>
+      </c>
+      <c r="P34">
+        <v>0.02242342105418618</v>
+      </c>
+      <c r="Q34">
+        <v>0.0332523353525</v>
+      </c>
+      <c r="R34">
+        <v>0.199514012115</v>
+      </c>
+      <c r="S34">
+        <v>0.0008162016855622104</v>
+      </c>
+      <c r="T34">
+        <v>0.0006596229975427727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.9062475</v>
+      </c>
+      <c r="H35">
+        <v>1.812495</v>
+      </c>
+      <c r="I35">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J35">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1117726666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.335318</v>
+      </c>
+      <c r="O35">
+        <v>0.06062871111689701</v>
+      </c>
+      <c r="P35">
+        <v>0.06830651908252952</v>
+      </c>
+      <c r="Q35">
+        <v>0.101293699735</v>
+      </c>
+      <c r="R35">
+        <v>0.60776219841</v>
+      </c>
+      <c r="S35">
+        <v>0.002486324271186073</v>
+      </c>
+      <c r="T35">
+        <v>0.002009352219719355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.9062475</v>
+      </c>
+      <c r="H36">
+        <v>1.812495</v>
+      </c>
+      <c r="I36">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J36">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.04265333333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.12796</v>
+      </c>
+      <c r="O36">
+        <v>0.02313639552460095</v>
+      </c>
+      <c r="P36">
+        <v>0.0260663077490635</v>
+      </c>
+      <c r="Q36">
+        <v>0.0386544767</v>
+      </c>
+      <c r="R36">
+        <v>0.2319268602</v>
+      </c>
+      <c r="S36">
+        <v>0.0009488010000685014</v>
+      </c>
+      <c r="T36">
+        <v>0.0007667846940375662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.9062475</v>
+      </c>
+      <c r="H37">
+        <v>1.812495</v>
+      </c>
+      <c r="I37">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J37">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.449119</v>
+      </c>
+      <c r="N37">
+        <v>0.898238</v>
+      </c>
+      <c r="O37">
+        <v>0.2436150708411985</v>
+      </c>
+      <c r="P37">
+        <v>0.1829770876828955</v>
+      </c>
+      <c r="Q37">
+        <v>0.4070129709525</v>
+      </c>
+      <c r="R37">
+        <v>1.62805188381</v>
+      </c>
+      <c r="S37">
+        <v>0.009990416294539669</v>
+      </c>
+      <c r="T37">
+        <v>0.005382581666168455</v>
       </c>
     </row>
   </sheetData>
